--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1,269 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13644"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30720" windowHeight="13644" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>机器人添加时间</t>
-  </si>
-  <si>
-    <t>附件地址或文章所在地</t>
-  </si>
-  <si>
-    <t>快照</t>
-  </si>
-  <si>
-    <t>错敏词</t>
-  </si>
-  <si>
-    <t>推荐词</t>
-  </si>
-  <si>
-    <t>附件标题</t>
-  </si>
-  <si>
-    <t>父页面地址</t>
-  </si>
-  <si>
-    <t>父页面标题</t>
-  </si>
-  <si>
-    <t>2025-01-27 09:07</t>
-  </si>
-  <si>
-    <t>https://www.scnj.gov.cn/group3/M00/11/DF/rBUtImaUl_qAKlhpAACWACRvNWQ144.xls</t>
-  </si>
-  <si>
-    <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0954780ad0c04f11ac4394e600ed47fb&amp;type=0</t>
-  </si>
-  <si>
-    <t>给与</t>
-  </si>
-  <si>
-    <t>给予</t>
-  </si>
-  <si>
-    <t>2023年《南江县深入推进新型工业化构建现代化产业体系七条措施》拟奖补项目公示表(2).xls</t>
-  </si>
-  <si>
-    <t>https://www.scnj.gov.cn/public/6598331/13952925.html</t>
-  </si>
-  <si>
-    <t>南江县经济和信息化局关于2023年《南江县深入推进新型工业化构建现代化产业体系七条措施》拟奖补项目的公示</t>
-  </si>
-  <si>
-    <t>https://www.scnj.gov.cn/group3/M00/15/56/rBUtImeVrFCAfFWaAAIbMgMRvaM81.docx</t>
-  </si>
-  <si>
-    <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fca5f26d8ca841378b0de9cfb093d3bd&amp;type=0</t>
-  </si>
-  <si>
-    <t>、及</t>
-  </si>
-  <si>
-    <t>及</t>
-  </si>
-  <si>
-    <t>需求论证-三名工程校园网络环境升级和3D校园智慧体验中心采购项目.docx</t>
-  </si>
-  <si>
-    <t>https://www.scnj.gov.cn/public/6598511/13980310.html</t>
-  </si>
-  <si>
-    <t>南江县小河职业中学三名工程校园网络环境升级和3D校园智慧体验中心采购项目竞争性谈判公告</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -563,159 +471,159 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -961,7 +869,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -970,7 +878,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -983,11 +891,74 @@
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1239,105 +1210,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.2222222222222" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.3333333333333" style="1" customWidth="1"/>
+    <col width="25.6666666666667" customWidth="1" style="1" min="1" max="1"/>
+    <col width="87.2222222222222" customWidth="1" style="1" min="2" max="2"/>
+    <col width="25.6666666666667" customWidth="1" style="1" min="3" max="3"/>
+    <col width="35.1111111111111" customWidth="1" style="1" min="4" max="4"/>
+    <col width="36.8888888888889" customWidth="1" style="1" min="6" max="6"/>
+    <col width="23.3333333333333" customWidth="1" style="1" min="7" max="7"/>
+    <col width="27.3333333333333" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>机器人添加时间</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>附件地址或文章所在地</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>快照</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>错敏词</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>推荐词</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>附件标题</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>父页面地址</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>父页面标题</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-27 09:07</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/11/DF/rBUtImaUl_qAKlhpAACWACRvNWQ144.xls</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0954780ad0c04f11ac4394e600ed47fb&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>给与</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>给予</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>2023年《南江县深入推进新型工业化构建现代化产业体系七条措施》拟奖补项目公示表(2).xls</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598331/13952925.html</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>南江县经济和信息化局关于2023年《南江县深入推进新型工业化构建现代化产业体系七条措施》拟奖补项目的公示</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>2025-01-27 09:07</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/56/rBUtImeVrFCAfFWaAAIbMgMRvaM81.docx</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fca5f26d8ca841378b0de9cfb093d3bd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>、及</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>及</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>需求论证-三名工程校园网络环境升级和3D校园智慧体验中心采购项目.docx</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598511/13980310.html</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>南江县小河职业中学三名工程校园网络环境升级和3D校园智慧体验中心采购项目竞争性谈判公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-08 09:06</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/oldfiles/njxxxgk/2019/06/27/20190627114659-785511.xls</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dc773cbe803145389837950a5c17d49d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>全国“两会”期间</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>全国两会期间</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>2019年年初预算表</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ztzl/czyjs/2019nysgk/bmys/13201471.html</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>关于中共南江县委政法委员会2019年部门预算信息公开的说明（补充公示）</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-08 09:06</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2016/05/25/20160525150728-572915.doc</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=05758d9aaf1c4d208b24ee415ceb2515&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>气侯</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>气候</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>下两加油站建设项目环境影响报告表（报批）</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598111/12606911.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-08 09:06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2015/03/27/20150327180137-960969.doc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3c8e91345cb24d989b318296e16d77b7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>、以及</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>以及</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>周家沟石料场建设项目环境影响报告表</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598111/12605591.html</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -1438,39 +1438,249 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="0" t="inlineStr">
         <is>
           <t>2025-02-08 09:06</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2015/03/27/20150327180137-960969.doc</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3c8e91345cb24d989b318296e16d77b7&amp;type=0</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>、以及</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>以及</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>周家沟石料场建设项目环境影响报告表</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/public/6598111/12605591.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-09 17:55</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/0C/9B/rBUtImQ3Z8WAf_QdAAEXN89Pqjk29.xlsx</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=293d1ffc73414a68b0d673d18caeeb2d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>统计局部门预算批复表.xlsx</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598251/13844666.html</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>南江县统计局</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-09 17:56</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/0C/9B/rBUtImQ3Z8WAf_QdAAEXN89Pqjk29.xlsx</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b91d3fa84a504a6090b0241566743688&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>百页窗</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>百叶窗</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>统计局部门预算批复表.xlsx</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598251/13844666.html</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>南江县统计局</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-09 17:56</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/0C/9B/rBUtImQ3Z8WAf_QdAAEXN89Pqjk29.xlsx</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3a142cda1ec14ffbbaeb2cca0dfe138c&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>统计局部门预算批复表.xlsx</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6598251/13844666.html</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>南江县统计局</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-09 17:57</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/oldfiles/njxxxgk/2019/04/19/20190419155044-822106.xls</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d04ce2cf3fdb410383d1b99ec09f0b03&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>全国“两会”期间</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>全国两会期间</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>南江县委政法委2019年部门预算表</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/ztzl/czyjs/2019nysgk/bmys/13201691.html</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>中共南江县委政法委员会2019年度收支预算说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-10 08:49</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/11/07/20181107155228-740979.xls</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f9b69b43572e450dad5811f5279790ef&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>《特种设备安全监督条例》</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>《特种设备安全监察条例》</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>四川省行政事业性收费标准 - 副本</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598631/12263871.html</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>四川省行政事业性收费标准</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -1643,44 +1643,281 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="0" t="inlineStr">
         <is>
           <t>2025-02-10 08:49</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/11/07/20181107155228-740979.xls</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f9b69b43572e450dad5811f5279790ef&amp;type=0</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>《特种设备安全监督条例》</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>《特种设备安全监察条例》</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="0" t="inlineStr">
         <is>
           <t>四川省行政事业性收费标准 - 副本</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/public/6598631/12263871.html</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>四川省行政事业性收费标准</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-10 14:17</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2020/04/07/20200407153528-264891.xlsx</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1329fefa206c474aa451fb6505e1acd4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>县卫生与健康局</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>县卫生健康局</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>南江县地方政府债务信息公开表</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598531/12208091.html</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>南江县2019年政府债务公开信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-15 10:31</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njx/file/p/6e4c8efc87429aa97421f0f43ba75e62.xlsx</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ef5cc5dd0c944b45b5d139f9107a2386&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>物质储备</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>物资储备</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>6e4c8efc87429aa97421f0f43ba75e62.xlsx</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/ywdt/gsgg/11889221.html</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>2019年度单项目标考核情况汇总表（债务化解）</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-15 10:31</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njx/file/p/ac71be5ea5d3629cb55f831a21df8d28.xlsx</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0a2241fb656f4c77b5dcea6bf2059553&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>物质储备</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>物资储备</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>ac71be5ea5d3629cb55f831a21df8d28.xlsx</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/ywdt/gsgg/11889231.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-15 10:31</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2020/01/14/20200114152515-753166.xlsx</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=662de80e4b8245d7be097321b7fd0c0a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>物质储备</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>物资储备</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>2019年度商务局目标考核情况汇总表</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598391/12142901.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-15 10:31</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2020/01/10/20200110170740-461971.xls</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=895d5b57fe9b416faaaed99834641e3b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>物质储备</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>物资储备</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>2019年度统计工作（含经济普查）目标考核情况公示表</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598251/12100401.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-02-15 13:49</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njx/file/p/8a49594e72a63e64a83e6e25ca96b977.xlsx</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=62d8fdbfda1c45bcb435ea04b2bc7a59&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>物质储备</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>物资储备</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8a49594e72a63e64a83e6e25ca96b977.xlsx</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/ywdt/gsgg/11888731.html</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2019年度驻村帮扶考核情况汇总表</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -1880,44 +1880,81 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="0" t="inlineStr">
         <is>
           <t>2025-02-15 13:49</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/oldfiles/njx/file/p/8a49594e72a63e64a83e6e25ca96b977.xlsx</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=62d8fdbfda1c45bcb435ea04b2bc7a59&amp;type=0</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="0" t="inlineStr">
         <is>
           <t>物质储备</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="0" t="inlineStr">
         <is>
           <t>物资储备</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="0" t="inlineStr">
         <is>
           <t>8a49594e72a63e64a83e6e25ca96b977.xlsx</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/ywdt/gsgg/11888731.html</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="0" t="inlineStr">
         <is>
           <t>2019年度驻村帮扶考核情况汇总表</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-02-15 20:59</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njx/file/p/c69a8841076d882d805f4ca06ab1084c.xlsx</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=956e963dec894ea8a93315f3ad403e6d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>物质储备</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>物资储备</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>c69a8841076d882d805f4ca06ab1084c.xlsx</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/ywdt/gsgg/11889141.html</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -1922,39 +1922,303 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="0" t="inlineStr">
         <is>
           <t>2025-02-15 20:59</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/oldfiles/njx/file/p/c69a8841076d882d805f4ca06ab1084c.xlsx</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=956e963dec894ea8a93315f3ad403e6d&amp;type=0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="0" t="inlineStr">
         <is>
           <t>物质储备</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="0" t="inlineStr">
         <is>
           <t>物资储备</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="0" t="inlineStr">
         <is>
           <t>c69a8841076d882d805f4ca06ab1084c.xlsx</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/ywdt/gsgg/11889141.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-20 08:54</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/08/05/20180805143945-887977.pdf</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=a02ca9910beb48848ae3a6ce8b0f3db1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条列实施细则》</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>南江县人民政府办公室关于印发《南江县保留和取消村（社区）证明事项清单》的通知</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6599051/12433781.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-20 08:54</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/08/18/20180818113033-875352.pdf</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2065c164b6884637a7dc32a8e66e77f0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条列实施细则》</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>南江县保留和取消村（社区）证明事项清单</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6599151/12473251.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-20 08:55</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/08/09/20180809173931-952058.pdf</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9b21dfddde464364831ce26e4cb65260&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条列实施细则》</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>关于印发《南江县保留和取消村（社区）证明事项清单》的通知</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598991/12398741.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-20 08:55</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/08/13/20180813164037-559465.pdf</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=cad3fd6681ac45a19544d3286814b97b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条列实施细则》</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>南江县人民政府办公室关于印发《南江县保留和取消村（社区）证明事项清单》的通知</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6599091/12446441.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-20 08:56</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/08/19/20180819173049-429043.pdf</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b67c865203704a05abfa6c963d5d4646&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条列实施细则》</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>南江县保留和取消村（社区）证明事项清单</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598871/12345151.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-20 08:56</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/08/05/20180805171656-493795.pdf</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c6192bc846c240cebe534fd200691dbf&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条列实施细则》</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>南府办〔2018〕61号文件南江县人民政府办公室关于印发《南江县保留和取消村（社区）证明事项清单》的通知</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6599011/12413611.html</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>南江县人民政府办公室关于印发《南江县保留和取消村（社区）证明事项清单》的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-02-20 08:56</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/08/21/20180821182150-298252.pdf</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=92d002c6d8d447af9dfd7e17017d2d76&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条列实施细则》</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>《不动产登记暂行条例实施细则》</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>关于印发《南江县保留和取消村（社区）证明事项清单》的通知</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6599271/12527031.html</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -2186,39 +2186,118 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="0" t="inlineStr">
         <is>
           <t>2025-02-20 08:56</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/08/21/20180821182150-298252.pdf</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=92d002c6d8d447af9dfd7e17017d2d76&amp;type=0</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="0" t="inlineStr">
         <is>
           <t>《不动产登记暂行条列实施细则》</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="0" t="inlineStr">
         <is>
           <t>《不动产登记暂行条例实施细则》</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="0" t="inlineStr">
         <is>
           <t>关于印发《南江县保留和取消村（社区）证明事项清单》的通知</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/public/6599271/12527031.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>2025-02-21 14:31</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/03/06/20180306114244-304528.pdf</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=cd89a5358d9344a78e6456b3f984c108&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>全国“两会”</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>全国两会</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>国务院安委会办公室关于认真贯彻落实中央领导同志重要批示精神切实加强当前安全生产工作的通知.pdf</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598411/12152761.html</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>关于转发《国务院安委会办公室关于认真贯彻落实中央领导同志重要批示精神切实加强当前安全生产工作的通知》的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-02-21 14:31</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2016/02/29/20160229185757-118173.pdf</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=28c2f556a90749e8989dcd4e03dd4e3f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>全国“两会”</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>全国两会</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>参阅第五期</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598051/11989861.html</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -2265,39 +2265,286 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="0" t="inlineStr">
         <is>
           <t>2025-02-21 14:31</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2016/02/29/20160229185757-118173.pdf</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=28c2f556a90749e8989dcd4e03dd4e3f&amp;type=0</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="0" t="inlineStr">
         <is>
           <t>全国“两会”</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="0" t="inlineStr">
         <is>
           <t>全国两会</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" s="0" t="inlineStr">
         <is>
           <t>参阅第五期</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G27" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/public/6598051/11989861.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-01 14:19</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2019/06/19/20190619104438-962844.doc</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=34686469a9c84c26a770751c2f4daed3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>深入学习贯彻新时代中国特色社会主义思想</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>深入学习贯彻习近平新时代中国特色社会主义思想</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>2019年党建工作要点</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598051/11995131.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:17</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njx/file/p/a8158738e4fa06f6060ee89485a8238b.doc</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=38135809c9d14177a1cc4068cc15fb2e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>县府有关部门</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>政府有关部门</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>a8158738e4fa06f6060ee89485a8238b.doc</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/xxgk/jbxxgk/zcwj/11730191.html</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>南江县人民政府办公室关于印发南江县2019年政务公开工作任务分解表的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:17</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njx/file/p/6e3dc1e60a26a8428023569dd09228f4.doc</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=3da3e82651344adebcd08c4361e28249&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>县府有关部门</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>政府有关部门</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>6e3dc1e60a26a8428023569dd09228f4.doc</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/xxgk/jbxxgk/zcwj/11728121.html</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>南江县人民政府办公室关于印发南江县2019年政务公开工作任务分解表的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:17</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2015/10/20/20151020173823-323613.pdf</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b56afefb24ce4bc89d89847f2e76db29&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>县府领导</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>政府领导</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>十七届第56次常务会议纪要</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598711/12275181.html</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>十七届第56次常务会议纪要</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:17</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2015/10/20/20151020153833-284044.pdf</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fe4e2f591560479bac6f6ec3c4f0c2d4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>县委、县府</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>县委、县政府</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>十七届第60次常务会议纪要</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598711/12275011.html</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>十七届第60次常务会议纪要</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-03-05 15:17</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2015/10/20/20151020174321-268544.pdf</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=581b6828fb554a2781d2bae413071be3&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>县委、县府</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>县委、县政府</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>十七届第59次常务会议纪要</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598711/12275191.html</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>十七届第59次常务会议纪要</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -2507,44 +2507,1788 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="0" t="inlineStr">
         <is>
           <t>2025-03-05 15:17</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2015/10/20/20151020174321-268544.pdf</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=581b6828fb554a2781d2bae413071be3&amp;type=0</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="0" t="inlineStr">
         <is>
           <t>县委、县府</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="0" t="inlineStr">
         <is>
           <t>县委、县政府</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="0" t="inlineStr">
         <is>
           <t>十七届第59次常务会议纪要</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G33" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/public/6598711/12275191.html</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" s="0" t="inlineStr">
         <is>
           <t>十七届第59次常务会议纪要</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-14 14:30</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2017/03/14/20170314111927-510490.pdf</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d12e57beb0914e8bae3ed5c093ac1ce8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>既使</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>即使</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>附件2、南江县光雾山度假区旅游产品开发项目环境影响报告表。</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598111/12608451.html</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>关于2016年11月17日受理建设项目环评文件的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-20 09:06</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/0D/62/rBUtImR0S7-AUllBAAIUIpSbAZI97.docx</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=509b1867bb6b44f1b893622c0a5b2d1a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>海棉</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>海绵</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>相关材料.docx</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6597991/13859977.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-21 09:50</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2015/07/30/20150730170458-970164.pdf</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=04f8d49aff6a482d986c650b9a509a70&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>晚上22:00</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>南江县霞石矿业有限公司矿山采矿、洗矿、矿渣综合利用技改扩建工程环境影响报告书</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598111/12605821.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-26 15:49</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2017/05/11/20170511180129-272048.pdf</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=53a89290478d4ee8b7c3e0c6ec4999a4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>申核</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>审核</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>教育资助类申办流程图</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598511/12185031.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-27 20:37</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2013/03/15/20130315115647-249141.doc</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dd0502589bf646d29c88eb0dc7402d24&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>挂牌须知</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598191/12057011.html</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>南江县国有建设用地使用权挂牌公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:39</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2012/08/20/20120820144540-964571.doc</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f785454c030040e691a4f524f853f07a&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>赶场镇农村义务教育学生营养改善计划实施方案</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6599171/12474731.html</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>关于印发《赶场镇农村义务教育学生营养改善实施方案的通知》</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:39</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2019/12/02/20191202180424-612054.xlsx</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2e342ae9bb5c4bf99f71bf89d16b742e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>2020月</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>南江县2019年扶贫小额贷款贫困户贴息补助兑现到户汇总表</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598431/12161071.html</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>关于对《南江县2019年扶贫小额贷款贫困户贴息补助兑现到户汇总表》的公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:39</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/08/03/20180803111445-515915.doc</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=db6b971bf89048e0b7c20aeb5ebb1e32&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>下午18:30</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>关于征集政府采购招标代理机构的公告.doc</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598571/12237511.html</t>
+        </is>
+      </c>
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>关于征集政府采购招标代理机构的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:39</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/03/06/20180306142153-405809.xls</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=13531d477a2f46b78b97d1e7812f9cf1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>晚上20:00</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>南江镇“两会”期间重点对象24小时“人盯人”轮流值守安排表</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598131/12598341.html</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>中共南江镇委员会关于切实做好全国“两会”期间信访维稳工作的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:39</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/04/74/rBUtImCTSB6AVssfABV79_eL3v8653.pdf</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c9f434db0b22491a921a8909b23d7074&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>5月9月</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>南江县花桥水电站建设项目（征求意见稿）.pdf</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598111/13171671.html</t>
+        </is>
+      </c>
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>南江县花桥水电站建设项目环境影响评价第二次公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:39</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/15/C1/rBUtImflDTOAXgLMAAECpiWesd849.xlsx</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4c5439a199784080baed34c6a4c58b1b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>南江县关路镇人民政府2025年部门预算编制说明</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6599071/13990381.html</t>
+        </is>
+      </c>
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>南江县关路镇人民政府2025年部门预算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:40</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2017/07/04/20170704163741-348982.doc</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=e70bba8336514905b592d860f74cb3c4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>下午17:30</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>关于征集政府采购招标代理机构的公告.doc</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598571/12235501.html</t>
+        </is>
+      </c>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>关于征集政府采购招标代理机构的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:40</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2013/03/15/20130315112558-510951.doc</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=71c161cd0f0d4e6692e4b41063eb63ac&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>挂牌须知</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598191/12056941.html</t>
+        </is>
+      </c>
+      <c r="H46" s="0" t="inlineStr">
+        <is>
+          <t>南江县国有建设用地使用权挂牌公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:40</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2013/03/15/20130315112002-460237.doc</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=06ea795005df4610956c2e5625afb38b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>挂牌须知</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598191/12056921.html</t>
+        </is>
+      </c>
+      <c r="H47" s="0" t="inlineStr">
+        <is>
+          <t>南江县国有建设用地使用权挂牌公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:40</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/10/22/20181022113717-300702.xls</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=4e4e6614a00040cf8d5894fbb8589641&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>2017年12月8月</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>南江县拟享受2018年高校毕业生创业补贴(第一批)人员公示</t>
+        </is>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6597991/11954551.html</t>
+        </is>
+      </c>
+      <c r="H48" s="0" t="inlineStr">
+        <is>
+          <t>关于拟享受2018年高校毕业生创业补贴(第一批)人员公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:40</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2020/02/04/20200204112302-453954.xls</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7105f75c9a5149918d9d0d77deb89a1f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>记帐</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>记账</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>2020年线上“春风行动”就业援助月暨东西部扶贫劳务协作专场网络招聘会公告东西部扶贫劳务协作专场</t>
+        </is>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6597991/11955761.html</t>
+        </is>
+      </c>
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>2020年线上“春风行动”就业援助月暨东西部扶贫劳务协作专场网络招聘会公告东西部扶贫劳务协作专场</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:42</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2013/03/15/20130315100754-177817.doc</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=1c3eb54f093047a7bfa052ebffc60909&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>竞拍须知</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598191/12056901.html</t>
+        </is>
+      </c>
+      <c r="H50" s="0" t="inlineStr">
+        <is>
+          <t>南江县国有建设用地土地使用权出让挂牌公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:42</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2019/11/15/20191115154753-311844.doc</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=de88c49611e7428f9779327aefa6bc2f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>1月5月</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>安全生产职业健康监督检查重点事项表(2017版-试行)的通知(安监总厅政法〔2017〕90)号</t>
+        </is>
+      </c>
+      <c r="G51" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598411/12156101.html</t>
+        </is>
+      </c>
+      <c r="H51" s="0" t="inlineStr">
+        <is>
+          <t>安全生产职业健康监督检查重点事项表</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:42</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/03/04/20180304143112-828061.pdf</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=de173e71c03146e3b752edac78e2ace8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>记帐</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>记账</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>关于印发《南江县农村义务教育学生营养改善计划及学校食堂管理工作实施意见（试行）》的通知</t>
+        </is>
+      </c>
+      <c r="G52" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598511/12189571.html</t>
+        </is>
+      </c>
+      <c r="H52" s="0" t="inlineStr">
+        <is>
+          <t>关于印发《南江县农村义务教育学生营养改善计划及学校食堂管理工作实施意见（试行）》的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:42</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/05/5B/rBUtImETNvWAPu8WAABCAN-Fnyg122.doc</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=690ece2e59a049f4b5c31e8296c74ec2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>2020年12月11月</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>南江县用人单位重大劳动保障违法行为社会公布表.doc</t>
+        </is>
+      </c>
+      <c r="G53" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6597991/13319681.html</t>
+        </is>
+      </c>
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>南江县用人单位重大劳动保障违法行为社会公布</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:42</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2014/07/13/20140713123424-652189.xls</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=583d286886cf4d5b8024a35e2d5a0fc2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>2013年11月12月</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>南江县2013年11月12月公招卫生教职工（应届生）首批体检人员公示表</t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6597991/11946211.html</t>
+        </is>
+      </c>
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>关于2013年11月12月公开招聘卫生专业人员和教职员工（应届生）首批体检、政审考察等有关事项的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:42</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2014/08/01/20140801162221-541999.pdf</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=78fbd3a69d464f93819316ed1d96f6a7&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>帐册</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>账册</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>南江县正直中心卫生院迁建项目环境影响报告书</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>关于2014年7月31日受理建设项目环评文件的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:42</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2013/03/15/20130315113753-663461.doc</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=923f89fd663943949ac7a535797a36d2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>挂牌须知</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598191/12056961.html</t>
+        </is>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>南江县国有建设用地使用权挂牌公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:43</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2013/03/15/20130315114024-992221.doc</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=7f1c5794ca1c4aae8e69921a299d5011&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>挂牌须知</t>
+        </is>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598191/12056971.html</t>
+        </is>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>南江县国有建设用地使用权挂牌公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:43</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2013/03/15/20130315112355-677184.doc</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=858579500ba54e2d8a890bccbd340bc8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F58" s="0" t="inlineStr">
+        <is>
+          <t>挂牌须知</t>
+        </is>
+      </c>
+      <c r="G58" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598191/12056931.html</t>
+        </is>
+      </c>
+      <c r="H58" s="0" t="inlineStr">
+        <is>
+          <t>南江县国有建设用地使用权挂牌公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:43</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2017/12/12/20171212150528-354737.docx</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=43a722cf9cbe4838b28161a76d43de8f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>求助制度</t>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
+        <is>
+          <t>救助制度</t>
+        </is>
+      </c>
+      <c r="F59" s="0" t="inlineStr">
+        <is>
+          <t>关于印发《东榆镇2017年义务教育“控辍保学”实施方案》的通知</t>
+        </is>
+      </c>
+      <c r="G59" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6599151/12472721.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:43</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/03/01/20180301102458-280575.pdf</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d4c6a913b70a407dab84d7a963ae96a8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>记帐</t>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
+        <is>
+          <t>记账</t>
+        </is>
+      </c>
+      <c r="F60" s="0" t="inlineStr">
+        <is>
+          <t>南江县农村义务教育学生营养改善计划及学校食堂管理工作实施意见（试行）</t>
+        </is>
+      </c>
+      <c r="G60" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598511/12189541.html</t>
+        </is>
+      </c>
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>南江县农村义务教育学生营养改善计划及学校食堂管理工作实施意见（试行）</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:43</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2015/10/19/20151019090730-133467.pdf</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=87f7b08a6de84f30b72dc63536ddd37e&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>下午13：30</t>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F61" s="0" t="inlineStr">
+        <is>
+          <t>关于切实做好2015年市对县招商引资年度目标考核工作的紧急通知</t>
+        </is>
+      </c>
+      <c r="G61" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598711/12274881.html</t>
+        </is>
+      </c>
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>关于切实做好2015年市对县招商引资年度目标考核工作的紧急通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:43</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2013/03/15/20130315115206-960030.doc</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9058d42f606e4735a95b203c3952534b&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F62" s="0" t="inlineStr">
+        <is>
+          <t>挂牌须知</t>
+        </is>
+      </c>
+      <c r="G62" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598191/12057001.html</t>
+        </is>
+      </c>
+      <c r="H62" s="0" t="inlineStr">
+        <is>
+          <t>南江县国有建设用地使用权挂牌公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:44</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2013/05/23/20130523095058-518643.doc</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fc07074954734365a7be2529067c1948&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F63" s="0" t="inlineStr">
+        <is>
+          <t>挂牌须知</t>
+        </is>
+      </c>
+      <c r="G63" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598191/12057931.html</t>
+        </is>
+      </c>
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>南江县国有建设用地土地使用权出让挂牌公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:44</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2013/03/15/20130315114347-431475.doc</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=d7f1d14714f64441b6e7aef5ea17a900&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F64" s="0" t="inlineStr">
+        <is>
+          <t>挂牌须知</t>
+        </is>
+      </c>
+      <c r="G64" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598191/12056981.html</t>
+        </is>
+      </c>
+      <c r="H64" s="0" t="inlineStr">
+        <is>
+          <t>南江县国有建设用地使用权挂牌公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:44</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/04/A1/rBUtImCnA2OALjY4AAJWALTe39Q251.xls</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=5a62b147265e4d118053674eef3cdd54&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>下午14点</t>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F65" s="0" t="inlineStr">
+        <is>
+          <t>岗位信息一览表.xls</t>
+        </is>
+      </c>
+      <c r="G65" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6599091/13204441.html</t>
+        </is>
+      </c>
+      <c r="H65" s="0" t="inlineStr">
+        <is>
+          <t>南江县2021年东西部劳务协作暨残疾人就业帮扶专场网络招聘会</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:44</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2014/07/13/20140713123538-930856.doc</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ebb2e23991b44271af416ad88938ccce&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>2013年11月12月</t>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误</t>
+        </is>
+      </c>
+      <c r="F66" s="0" t="inlineStr">
+        <is>
+          <t>政审函</t>
+        </is>
+      </c>
+      <c r="G66" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6597991/11946211.html</t>
+        </is>
+      </c>
+      <c r="H66" s="0" t="inlineStr">
+        <is>
+          <t>关于2013年11月12月公开招聘卫生专业人员和教职员工（应届生）首批体检、政审考察等有关事项的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:45</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2017/06/13/20170613105858-147657.doc</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c7359a509e1f4a16b9e23768ec3bedb1&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F67" s="0" t="inlineStr">
+        <is>
+          <t>侯家乡便民服务中心服务指南</t>
+        </is>
+      </c>
+      <c r="G67" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6599211/12496831.html</t>
+        </is>
+      </c>
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>侯家乡便民服务中心服务指南</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:46</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/11/B1/rBUtImZiu46AfJC2AABDlQYCfzE86.xlsx</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=2af6be2e19a6498cb45be42e457609bd&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>“三公经费”</t>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F68" s="0" t="inlineStr">
+        <is>
+          <t>年部门整体支出绩效评价报告</t>
+        </is>
+      </c>
+      <c r="G68" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6597971/13946483.html</t>
+        </is>
+      </c>
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>年部门整体支出绩效评价报告</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:46</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2012/04/27/20120427114402-774284.doc</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6af11cb91d8545f88888a876d1800855&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F69" s="0" t="inlineStr">
+        <is>
+          <t>南江县审计局行政权力事项</t>
+        </is>
+      </c>
+      <c r="G69" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598591/12239641.html</t>
+        </is>
+      </c>
+      <c r="H69" s="0" t="inlineStr">
+        <is>
+          <t>南江县审计局行政权力事项目录</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:46</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/00/57/rBUtIl6yHQeAbXXtACHvvXgbbDk672.pdf</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=63bab18205dc4366b3ddbf8150b38c49&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>记帐</t>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
+        <is>
+          <t>记账</t>
+        </is>
+      </c>
+      <c r="F70" s="0" t="inlineStr">
+        <is>
+          <t>转发：关于印发巴中市市级部门行政权力清单（2019年本）的通知.pdf</t>
+        </is>
+      </c>
+      <c r="G70" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6599271/12643961.html</t>
+        </is>
+      </c>
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>巴中市市级部门行政权力清单（2019年本）</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:46</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2020/03/06/20200306155829-493881.docx</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=cfc21c5c8a3b4ee292981eb339c8aba4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>帐户</t>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
+        <is>
+          <t>账户</t>
+        </is>
+      </c>
+      <c r="F71" s="0" t="inlineStr">
+        <is>
+          <t>关于做好2020年普通高等学校高职教育单独招生工作的通知</t>
+        </is>
+      </c>
+      <c r="G71" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598511/12196911.html</t>
+        </is>
+      </c>
+      <c r="H71" s="0" t="inlineStr">
+        <is>
+          <t>【政策解读】单招学生和普通高考录取学生有无区别？权威解答来了！</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:47</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/group3/M00/08/47/rBUtImJkqfKABMmHAAJQAOdc5K4181.doc</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>https://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=f2bb7b749dbc4e63bd977b2ded0ad0a6&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>“七五普法”</t>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
+        <is>
+          <t>“七五”普法</t>
+        </is>
+      </c>
+      <c r="F72" s="0" t="inlineStr">
+        <is>
+          <t>高塔镇2017年部门决算编制说明</t>
+        </is>
+      </c>
+      <c r="G72" s="0" t="inlineStr">
+        <is>
+          <t>https://www.scnj.gov.cn/public/6599091/12445051.html</t>
+        </is>
+      </c>
+      <c r="H72" s="0" t="inlineStr">
+        <is>
+          <t>高塔镇人民政府2017年决算公开</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:47</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/04/5D/rBUtImB_fWaAQwe8ACmjugNoqro651.pdf</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=ca0c70c9626a44ffac530fff6ff4c45d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>5月9月</t>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
+        <is>
+          <t>疑似日期错误，建议修改</t>
+        </is>
+      </c>
+      <c r="F73" s="0" t="inlineStr">
+        <is>
+          <t>南江县花桥水电站建设项目（征求意见稿）.pdf</t>
+        </is>
+      </c>
+      <c r="G73" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598111/13159751.html</t>
+        </is>
+      </c>
+      <c r="H73" s="0" t="inlineStr">
+        <is>
+          <t>南江县花桥水电站建设项目环境影响评价第二次公示</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:49</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/07/29/rBUtImGbTdaAbZpfAApHvcxU6rk239.pdf</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=c3af6319161b4066b4245c4ea28902a0&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>晚上21：00</t>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F74" s="0" t="inlineStr">
+        <is>
+          <t>南江县2021年”金秋招聘月暨就业帮扶行动周“网络专场招聘会.pdf</t>
+        </is>
+      </c>
+      <c r="G74" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/xxgk/zdlyxxgk/jycy/13479831.html</t>
+        </is>
+      </c>
+      <c r="H74" s="0" t="inlineStr">
+        <is>
+          <t>南江县2021年“金秋招聘月暨就业帮扶行动周”网络专场招聘会</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-03-31 11:49</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/03/97/rBUtIl_yaR2AHkXPAAFKAaD2wDo94.docx</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=50b447042acb4bc3916b4c27f7787783&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>下午14:30</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>南江县政府信息公开指南.docx</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/column/6598331?type=2</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>政府信息公开指南</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -4251,44 +4251,333 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="0" t="inlineStr">
         <is>
           <t>2025-03-31 11:49</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/group3/M00/03/97/rBUtIl_yaR2AHkXPAAFKAaD2wDo94.docx</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=50b447042acb4bc3916b4c27f7787783&amp;type=0</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" s="0" t="inlineStr">
         <is>
           <t>下午14:30</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E75" s="0" t="inlineStr">
         <is>
           <t>疑似时间错误，注意区分12小时制和24小时制的时间表示方法</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F75" s="0" t="inlineStr">
         <is>
           <t>南江县政府信息公开指南.docx</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G75" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/public/column/6598331?type=2</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H75" s="0" t="inlineStr">
         <is>
           <t>政府信息公开指南</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-18 10:26</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2016/12/04/20161204095941-621511.xls</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=dca978027c85406daf5679fa59b345e8&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>老干局</t>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
+        <is>
+          <t>老干部局</t>
+        </is>
+      </c>
+      <c r="F76" s="0" t="inlineStr">
+        <is>
+          <t>附件：2015年老干局决算批复表.xls</t>
+        </is>
+      </c>
+      <c r="G76" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598311/11926851.html</t>
+        </is>
+      </c>
+      <c r="H76" s="0" t="inlineStr">
+        <is>
+          <t>中共南江县委老干部局2015年部门决算</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-18 10:26</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2016/02/29/20160229205551-832962.pdf</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=0727c0d393174ab8858320f4f2426b5d&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>卯足干劲</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t>铆足干劲</t>
+        </is>
+      </c>
+      <c r="F77" s="0" t="inlineStr">
+        <is>
+          <t>刘凯同志在全县招商引资暨回乡创业人士座谈会上的讲话</t>
+        </is>
+      </c>
+      <c r="G77" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598711/12275741.html</t>
+        </is>
+      </c>
+      <c r="H77" s="0" t="inlineStr">
+        <is>
+          <t>刘凯同志在全县招商引资暨回乡创业人士座谈会上的讲话</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-21 08:36</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/06/A5/rBUtImF4162ASr8rAEMIidR7yHs615.pdf</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=acc82975adec403e8b5813263d7915a9&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>党的十九大及十九届二中、三中、四中、五中全会精神</t>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
+        <is>
+          <t>党的十九大和十九届二中、三中、四中、五中全会精神</t>
+        </is>
+      </c>
+      <c r="F78" s="0" t="inlineStr">
+        <is>
+          <t>附件.pdf</t>
+        </is>
+      </c>
+      <c r="G78" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598011/13433071.html</t>
+        </is>
+      </c>
+      <c r="H78" s="0" t="inlineStr">
+        <is>
+          <t>巴中市人民政府关于印发《巴中市“十四五”水安全保障规划》的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-21 08:36</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2019/12/19/20191219105746-336359.pdf</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=87ad10a7f25f4a13a354ebebd455ef22&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>建档立卡贫因户</t>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
+        <is>
+          <t>建档立卡贫困户</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>关于进一步事实无人抚养儿童保障工作的通知</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6599051/12433631.html</t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>关于进一步事实无人抚养儿童保障工作的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-22 09:19</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njx/file/p/f8695f791e669c99caf0f47879381f72.doc</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=9162d69f04634592b61fd1e34a5b7c57&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>中华人民共和国行政处罚法》</t>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
+        <is>
+          <t>《中华人民共和国行政处罚法》</t>
+        </is>
+      </c>
+      <c r="F80" s="0" t="inlineStr">
+        <is>
+          <t>f8695f791e669c99caf0f47879381f72.doc</t>
+        </is>
+      </c>
+      <c r="G80" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/xxgk/wgk/glgk/12587231.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>2025-04-24 10:37</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/04/4F/rBUtImB1Cg6AMRI5ADpQBNBWy24062.pdf</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=318060029b594ab9996060ac8edae011&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>党的十九大及十九届二中、三中、四中、五中全会精神</t>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
+        <is>
+          <t>党的十九大和十九届二中、三中、四中、五中全会精神</t>
+        </is>
+      </c>
+      <c r="F81" s="0" t="inlineStr">
+        <is>
+          <t>关于同意《县应急管理局2021年安全生产监管监察执法工作计划》的批复.pdf</t>
+        </is>
+      </c>
+      <c r="G81" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598411/13148181.html</t>
+        </is>
+      </c>
+      <c r="H81" s="0" t="inlineStr">
+        <is>
+          <t>南江县应急管理局2021年安全生产监管监察执法工作计划</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-04-24 15:05</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/0B/8C/rBUtImN1uK2ATxgQAAB-ADb6Cog952.doc</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fee08a86788e43e4b59be5cc5029f93f&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>辩认</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>辨认</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>四川省住房和城乡建设行政处罚裁量权适用规定.doc</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598631/13804095.html</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>四川省住房和城乡建设厅关于印发《四川省住房和城乡建设行政处罚裁量权适用规定》《四川省住房和城乡建设行政处罚裁量标准》的通知</t>
         </is>
       </c>
     </row>

--- a/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
+++ b/pcxzf/pcxzf/nanjiang/kaipumodify/modifyfile/sendfile/缓存中的附件需提交工单.xlsx
@@ -1215,7 +1215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -4540,44 +4540,170 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="0" t="inlineStr">
         <is>
           <t>2025-04-24 15:05</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/group3/M00/0B/8C/rBUtImN1uK2ATxgQAAB-ADb6Cog952.doc</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="0" t="inlineStr">
         <is>
           <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=fee08a86788e43e4b59be5cc5029f93f&amp;type=0</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" s="0" t="inlineStr">
         <is>
           <t>辩认</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" s="0" t="inlineStr">
         <is>
           <t>辨认</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="0" t="inlineStr">
         <is>
           <t>四川省住房和城乡建设行政处罚裁量权适用规定.doc</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G82" s="0" t="inlineStr">
         <is>
           <t>http://www.scnj.gov.cn/public/6598631/13804095.html</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="H82" s="0" t="inlineStr">
         <is>
           <t>四川省住房和城乡建设厅关于印发《四川省住房和城乡建设行政处罚裁量权适用规定》《四川省住房和城乡建设行政处罚裁量标准》的通知</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:34</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/group3/M00/08/B8/rBUtImKgRjCAfCKiAACi36ZiXDM11.xlsx</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=6f9062f27c254983bc4a08ae7a901ad4&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>”三公“经费</t>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F83" s="0" t="inlineStr">
+        <is>
+          <t>人防办2022年部门预算表.xlsx</t>
+        </is>
+      </c>
+      <c r="G83" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598311/13752281.html</t>
+        </is>
+      </c>
+      <c r="H83" s="0" t="inlineStr">
+        <is>
+          <t>南江县人民防空办公室2022年部门预算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>2025-05-07 09:34</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2017/09/11/20170911164156-633394.xls</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=24f3cb735b9345c4b540c59b534abcfc&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>”三公“经费</t>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
+        <is>
+          <t>“三公”经费</t>
+        </is>
+      </c>
+      <c r="F84" s="0" t="inlineStr">
+        <is>
+          <t>政管办2016年决算公开表.xls</t>
+        </is>
+      </c>
+      <c r="G84" s="0" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/public/6598311/11929091.html</t>
+        </is>
+      </c>
+      <c r="H84" s="0" t="inlineStr">
+        <is>
+          <t>南江县人民政府政务服务管理办公室2016年部门决算编制说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-05-19 09:18</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/oldfiles/njxxxgk/2018/12/20/20181220165649-461312.pdf</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>http://snapshot.ucap.com.cn/website/error-sensitive/index.html?id=b17acde30770414ca64685752f1583a2&amp;type=0</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>《危险化学品重大危险源辩识》</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>《危险化学品重大危险源辨识》</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>http://www.scnj.gov.cn/</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>回龙观废旧塑料回收及加工建设项目环境影响评价全文及公众参与说明公示</t>
         </is>
       </c>
     </row>
